--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D道具合成分类表_SynthClass_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D道具合成分类表_SynthClass_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0948C7-FD52-4CFC-A888-51461631EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD733B6-6EB0-43A8-97BE-2A0148A474CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1365" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -46,16 +46,16 @@
     <t>白蔷薇花圃制造</t>
   </si>
   <si>
+    <t>Elixires</t>
+  </si>
+  <si>
     <t>Pergaminhos</t>
   </si>
   <si>
     <t>Fabricação de Elixires</t>
   </si>
   <si>
-    <t>Fabricação de Rosas Brancas</t>
-  </si>
-  <si>
-    <t>Elixires</t>
+    <t>Fabricação da Rosa Branca</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,12 +478,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -502,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,18 +528,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
